--- a/RQ2 FUMA findings/combined VV Findings.xlsx
+++ b/RQ2 FUMA findings/combined VV Findings.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelbateman/Documents/University/MSc Psychological Research Methods/PSYM210 Research Apprenticeship/ADNI Data/RQ2 Findings/FUMA VV gene enrichment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelbateman/Documents/GitHub/sex_differences_CSF_proteins_brain_structure/RQ2 FUMA findings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F4D331-8D04-904C-A97D-A0E2FAAFD6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9973BBCA-C0C7-9245-8035-81771CC8C997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{A47391DA-A807-A440-A940-17765680B22F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{A47391DA-A807-A440-A940-17765680B22F}"/>
   </bookViews>
   <sheets>
-    <sheet name="GTEx 30 general tissue types" sheetId="1" r:id="rId1"/>
+    <sheet name="GTEx 30 general tissue types" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="GTEx 54 tissue types" sheetId="2" r:id="rId2"/>
-    <sheet name="Gene Expression (30 tissues)" sheetId="3" r:id="rId3"/>
+    <sheet name="Gene Expression (30 tissues)" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Gene Expression (54 tissues)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -738,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6AC7B7-280F-F142-845F-61D5B07E7A40}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -7079,7 +7079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C624E52-6384-4544-8185-AA41D010182D}">
   <dimension ref="A1:BD6"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
